--- a/pred_ohlcv/54_21/2020-01-11 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 LINK ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>2790.280589440159</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2726.066389440159</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3651.167289440159</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3532.159689440159</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3533.729389440159</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3553.455589440159</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3553.455589440159</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3560.171289440159</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3560.171289440159</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3604.383989440159</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2064.091289440159</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2530.427989440159</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5549.69328944016</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4736.78866340302</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4736.78866340302</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4737.28866340302</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4737.28866340302</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5064.24886340302</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5064.24886340302</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5467.47186340302</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6736.023702095615</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6271.510602095615</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6145.225002095614</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2141.570702095614</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2141.570702095614</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1448.406202095614</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1448.406202095614</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1348.406202095614</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1333.375302095614</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1167.570002095614</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>884.4549020956144</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>816.5988020956145</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>854.6082020956145</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1213.447490213637</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1172.378784065471</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-382.6556210733449</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-382.6556210733449</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4180.526521073345</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-5953.318021073345</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-6480.625021073345</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-7481.924821073345</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7480.924821073345</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-9835.767621073344</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-9834.767621073344</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-9834.767621073344</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-9815.473821073345</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-4501.685705799906</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4501.685705799906</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4501.685705799906</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4651.685705799906</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4582.910105799906</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-4582.910105799906</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4594.289605799906</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-4594.289605799906</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-7320.772805799907</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-7769.605605799907</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-7797.794005799907</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-17812.11314594257</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-17811.11314594257</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-26599.30340000545</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-26558.32560000545</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-24913.19540000545</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-24640.15040000545</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-24578.18830000545</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-24578.18830000545</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-24577.09700000545</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-26163.25632085379</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-26202.29792085379</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-26082.92442085379</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-26337.60362085379</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-26117.74312085379</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-26113.56322085379</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-26113.56322085379</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-25558.27262085379</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-26064.41002085379</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-26064.41002085379</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-26061.40402085379</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-26060.40402085379</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-25750.35792085379</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-25844.35792085379</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-26566.92392085379</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-26443.89570000545</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-26431.12250000545</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-26500.93390000545</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-25911.01890000545</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-25911.01890000545</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-25769.23240000545</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-24298.93680000545</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-23529.68414357097</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-23926.10261212206</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-23938.60261212206</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-23956.01881212206</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-24312.65881212206</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 LINK ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>2790.280589440159</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2726.066389440159</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3651.167289440159</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3532.159689440159</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3533.729389440159</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3553.455589440159</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3553.455589440159</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3560.171289440159</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3560.171289440159</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3604.383989440159</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2064.091289440159</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2530.427989440159</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5549.69328944016</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4736.78866340302</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4736.78866340302</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4737.28866340302</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4737.28866340302</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5064.24886340302</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5064.24886340302</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5467.47186340302</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6736.023702095615</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6271.510602095615</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6145.225002095614</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2141.570702095614</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2141.570702095614</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1448.406202095614</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1448.406202095614</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1348.406202095614</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1333.375302095614</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1167.570002095614</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>884.4549020956144</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>816.5988020956145</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>854.6082020956145</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1213.447490213637</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1172.378784065471</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-382.6556210733449</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-382.6556210733449</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4180.526521073345</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-5953.318021073345</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-6480.625021073345</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-7481.924821073345</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7480.924821073345</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-9835.767621073344</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-9834.767621073344</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-9834.767621073344</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-9815.473821073345</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-10375.10650579991</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-4501.685705799906</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4501.685705799906</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4501.685705799906</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4651.685705799906</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4582.910105799906</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-4582.910105799906</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4594.289605799906</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-4594.289605799906</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-7320.772805799907</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-7769.605605799907</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-7797.794005799907</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-3648.902905799906</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4814.414795272799</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-17812.11314594257</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-17811.11314594257</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-26599.30340000545</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-26558.32560000545</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-26558.32560000545</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-24913.19540000545</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-24640.15040000545</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-24578.18830000545</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-24578.18830000545</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-24577.09700000545</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-26082.92442085379</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-26337.60362085379</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-26117.74312085379</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-26113.56322085379</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-25558.27262085379</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-26064.41002085379</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-26061.40402085379</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-26060.40402085379</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-25844.35792085379</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-26566.92392085379</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-26443.89570000545</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-26431.12250000545</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-26500.93390000545</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-25911.01890000545</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-25911.01890000545</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-25769.23240000545</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-24298.93680000545</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-23529.68414357097</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-23926.10261212206</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-23938.60261212206</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-23956.01881212206</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-24312.65881212206</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
